--- a/results/UYMS-EVOLC-results.xlsx
+++ b/results/UYMS-EVOLC-results.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Ex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Ivır Zıvır\UYMS\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA483C2-E2F3-4BBA-99E4-AA61D6F60A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC67A8-C934-4A60-92C5-AFA81B8D580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITK" sheetId="1" r:id="rId1"/>
     <sheet name="Hadoop" sheetId="2" r:id="rId2"/>
-    <sheet name="Chromium" sheetId="3" r:id="rId3"/>
-    <sheet name="Chromium-IntelXeon" sheetId="4" r:id="rId4"/>
+    <sheet name="Chromium-IntelXeon" sheetId="4" r:id="rId3"/>
+    <sheet name="Chromium (not used)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Chromium-IntelXeon'!$G$10:$S$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Chromium-IntelXeon'!$G$11:$S$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Chromium-IntelXeon'!$G$9:$S$9</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,9 +72,6 @@
     <t>ACDC</t>
   </si>
   <si>
-    <t>MCDC</t>
-  </si>
-  <si>
     <t>DIFF</t>
   </si>
   <si>
@@ -114,6 +106,9 @@
   </si>
   <si>
     <t>Only 7</t>
+  </si>
+  <si>
+    <t>MGMC</t>
   </si>
 </sst>
 </file>
@@ -301,6 +296,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -325,29 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF262626"/>
+      <color rgb="FF404040"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,8 +399,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -407,6 +409,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58B1-47AB-9B64-C8D256B30216}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2184404078234804E-2"/>
+                  <c:y val="-4.514754094076541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-58B1-47AB-9B64-C8D256B30216}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>ITK!$F$10:$L$10</c:f>
@@ -448,12 +548,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -462,6 +562,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-58B1-47AB-9B64-C8D256B30216}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4978378597187197E-2"/>
+                  <c:y val="-4.0998911556448144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="262626"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-58B1-47AB-9B64-C8D256B30216}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>ITK!$F$11:$L$11</c:f>
@@ -877,8 +1103,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -886,548 +1113,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hadoop!$F$10:$Y$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>24.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26.12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E3A-4F7B-9917-77EE6170147D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MCDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hadoop!$F$11:$Y$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30.58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.46</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E3A-4F7B-9917-77EE6170147D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1818004239"/>
-        <c:axId val="31712847"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1818004239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2470947578154369E-2"/>
+                  <c:y val="-4.1862892106142267E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t># of co-changes</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31712847"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="31712847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="22"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Similarity (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818004239"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34708573378013285"/>
-          <c:y val="8.3725784212283758E-2"/>
-          <c:w val="0.30582831234146046"/>
-          <c:h val="7.0644124872721981E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13992769771703065"/>
-          <c:y val="0.15526946682168022"/>
-          <c:w val="0.70121813389678489"/>
-          <c:h val="0.63839558982672384"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ACDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Hadoop!$F$10:$Y$10</c:f>
@@ -1508,12 +1290,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1522,6 +1304,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2470947578154369E-2"/>
+                  <c:y val="-1.9186937232845497E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="262626"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Hadoop!$F$11:$Y$11</c:f>
@@ -1922,849 +1802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Similarity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Co-change (MCDC)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>MCDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="29"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>22</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>23</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>26</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>28</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>29</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>30</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Chromium!$F$11:$AI$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Chromium!$G$11:$AI$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>58.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>58.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C267-4170-910D-8450E07D1C62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="871253535"/>
-        <c:axId val="871248959"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="871253535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="871248959"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="871248959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="65"/>
-          <c:min val="55"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="871253535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Similarity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Co-change (ACDC)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ACDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Chromium!$L$6,Chromium!$O$6,Chromium!$R$6,Chromium!$U$6,Chromium!$Y$6,Chromium!$AD$6,Chromium!$AI$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Chromium!$L$10,Chromium!$O$10,Chromium!$R$10,Chromium!$U$10,Chromium!$Y$10,Chromium!$AD$10,Chromium!$AI$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DED-4DC0-ACCC-BAFA13FE3F1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="666119711"/>
-        <c:axId val="666109727"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="666119711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="666109727"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="666109727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="60"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="666119711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2803,8 +1841,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2812,6 +1851,107 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-00A9-4441-AD75-8BB6EDD0D982}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1882108486439246E-2"/>
+                  <c:y val="-3.2946790742066336E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-00A9-4441-AD75-8BB6EDD0D982}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Chromium-IntelXeon'!$G$6:$S$6</c:f>
@@ -2919,12 +2059,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2933,6 +2073,107 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-00A9-4441-AD75-8BB6EDD0D982}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6250000000000048E-2"/>
+                  <c:y val="-3.7126519059725686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-00A9-4441-AD75-8BB6EDD0D982}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Chromium-IntelXeon'!$G$6:$S$6</c:f>
@@ -3430,126 +2671,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5137,1554 +4258,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6718,44 +4291,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11FD155-5817-4D17-A19B-613FF6C21F08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6806,86 +4341,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95BDE22-8171-4930-B8A6-48FF3A8B068A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24591E5C-ABE6-48C3-BDA3-51991C619DE6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C95BDE22-8171-4930-B8A6-48FF3A8B068A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7191,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:CY53"/>
   <sheetViews>
-    <sheetView topLeftCell="G23" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7208,7 +4663,7 @@
   <sheetData>
     <row r="3" spans="3:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7216,7 +4671,7 @@
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="12" t="s">
@@ -7263,7 +4718,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -7310,7 +4765,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -7444,7 +4899,7 @@
         <v>50.39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="12">
         <v>54.28</v>
@@ -7495,8 +4950,8 @@
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -7563,9 +5018,9 @@
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6">
         <f>F11-$D$11</f>
@@ -7630,31 +5085,31 @@
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
@@ -7692,7 +5147,7 @@
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9">
         <f>AVERAGE(F11:L11)</f>
@@ -7736,208 +5191,208 @@
       <c r="D22"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="24"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="47" spans="7:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="R50" s="12"/>
       <c r="CY50" s="12"/>
     </row>
@@ -8008,7 +5463,7 @@
         <v>50.39</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>52.07</v>
@@ -8082,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF81F312-2BDD-4180-86AA-D0CC577BBA5B}">
   <dimension ref="C4:AL52"/>
   <sheetViews>
-    <sheetView topLeftCell="Q19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23:R35"/>
+    <sheetView topLeftCell="O20" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8128,7 +5583,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="AK4" s="1"/>
@@ -8136,7 +5591,7 @@
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -8170,7 +5625,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="20"/>
+      <c r="AJ5" s="27"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
@@ -8278,7 +5733,7 @@
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -8382,7 +5837,7 @@
     </row>
     <row r="8" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -8517,11 +5972,11 @@
       </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8557,7 +6012,7 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -8669,12 +6124,12 @@
       </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>27.23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>26.07</v>
@@ -8779,8 +6234,8 @@
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -8919,9 +6374,9 @@
       </c>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4">
         <f>F11-$D$11</f>
@@ -9058,31 +6513,31 @@
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -9172,7 +6627,7 @@
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <f>AVERAGE(F11:Y11)</f>
@@ -9208,15 +6663,15 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -9244,15 +6699,15 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -9268,193 +6723,193 @@
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="F23" s="4"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="F24" s="4"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="E26" s="24"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
     </row>
     <row r="27" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
     </row>
     <row r="28" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
     <row r="29" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
     </row>
     <row r="30" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
     </row>
     <row r="31" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
     </row>
     <row r="32" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
     </row>
     <row r="33" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
     </row>
     <row r="34" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
     </row>
     <row r="35" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
     </row>
     <row r="36" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
     </row>
     <row r="37" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
     </row>
     <row r="50" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="C50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -9490,7 +6945,7 @@
       <c r="AL50" s="1"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="1">
@@ -9602,12 +7057,12 @@
       </c>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C52" s="25"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="1">
         <v>27.23</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1">
         <v>29.35</v>
@@ -9728,11 +7183,872 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7534C913-4E58-4D5B-8F6A-47330764B231}">
+  <dimension ref="C5:W36"/>
+  <sheetViews>
+    <sheetView topLeftCell="J18" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3194559</v>
+      </c>
+      <c r="G7" s="1">
+        <v>274470</v>
+      </c>
+      <c r="H7" s="1">
+        <v>156876</v>
+      </c>
+      <c r="I7" s="1">
+        <v>81747</v>
+      </c>
+      <c r="J7" s="1">
+        <v>56439</v>
+      </c>
+      <c r="K7" s="1">
+        <v>28879</v>
+      </c>
+      <c r="L7" s="1">
+        <v>19540</v>
+      </c>
+      <c r="M7" s="1">
+        <v>13480</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3319</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1996</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1185</v>
+      </c>
+      <c r="R7" s="1">
+        <v>686</v>
+      </c>
+      <c r="S7" s="1">
+        <v>433</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:L8" si="0">F7-G7</f>
+        <v>2920089</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>117594</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>75129</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>25308</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>27560</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>9339</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>6060</v>
+      </c>
+      <c r="M8" s="2">
+        <f>M7-N7</f>
+        <v>6480</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:S8" si="1">N7-O7</f>
+        <v>3681</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1323</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="1"/>
+        <v>811</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+      <c r="J9" s="20">
+        <v>5</v>
+      </c>
+      <c r="K9" s="20">
+        <v>6</v>
+      </c>
+      <c r="L9" s="20">
+        <v>7</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8</v>
+      </c>
+      <c r="N9" s="20">
+        <v>10</v>
+      </c>
+      <c r="O9" s="20">
+        <v>13</v>
+      </c>
+      <c r="P9" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>20</v>
+      </c>
+      <c r="R9" s="20">
+        <v>25</v>
+      </c>
+      <c r="S9" s="20">
+        <v>30</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>62.96</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4">
+        <v>60.61</v>
+      </c>
+      <c r="H10" s="4">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="I10" s="4">
+        <v>69.09</v>
+      </c>
+      <c r="J10" s="4">
+        <v>71.36</v>
+      </c>
+      <c r="K10" s="4">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="L10" s="4">
+        <v>70.31</v>
+      </c>
+      <c r="M10" s="6">
+        <v>72.55</v>
+      </c>
+      <c r="N10" s="4">
+        <v>62.96</v>
+      </c>
+      <c r="O10" s="4">
+        <v>64.23</v>
+      </c>
+      <c r="P10" s="4">
+        <v>65.78</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>62.44</v>
+      </c>
+      <c r="R10" s="4">
+        <v>57.34</v>
+      </c>
+      <c r="S10" s="7">
+        <v>56.62</v>
+      </c>
+      <c r="T10" s="16">
+        <f>MAX(G10:S10)</f>
+        <v>72.55</v>
+      </c>
+      <c r="U10" s="16">
+        <f>MIN(G10:S10)</f>
+        <v>56.62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <v>77.41</v>
+      </c>
+      <c r="H11" s="4">
+        <v>74.66</v>
+      </c>
+      <c r="I11" s="4">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="J11" s="4">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="K11" s="4">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="L11" s="6">
+        <v>82.4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>80.88</v>
+      </c>
+      <c r="N11" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="O11" s="4">
+        <v>78.23</v>
+      </c>
+      <c r="P11" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>71.91</v>
+      </c>
+      <c r="R11" s="4">
+        <v>67.87</v>
+      </c>
+      <c r="S11" s="7">
+        <v>64.38</v>
+      </c>
+      <c r="T11" s="16">
+        <f>MAX(G11:S11)</f>
+        <v>82.4</v>
+      </c>
+      <c r="U11" s="16">
+        <f>MIN(G11:S11)</f>
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <f>G10-$D10</f>
+        <v>-2.3500000000000014</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:S12" si="2">H10-$D10</f>
+        <v>7.8899999999999935</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1300000000000026</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.720000000000006</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.5899999999999963</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.52000000000000313</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.6199999999999974</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.3400000000000034</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" ref="T12:T13" si="3">MAX(G12:S12)</f>
+        <v>9.5899999999999963</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" ref="U12:U13" si="4">MIN(G12:S12)</f>
+        <v>-6.3400000000000034</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="28"/>
+      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <f>G11-$D11</f>
+        <v>18.61</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:S13" si="5">H11-$D11</f>
+        <v>15.86</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="5"/>
+        <v>17.740000000000009</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.490000000000009</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="5"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.08</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.600000000000009</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="5"/>
+        <v>19.430000000000007</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="5"/>
+        <v>13.11</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0700000000000074</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="5"/>
+        <v>5.5799999999999983</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="3"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="4"/>
+        <v>5.5799999999999983</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <f>AVERAGE(G10:S10)</f>
+        <v>65.755384615384614</v>
+      </c>
+      <c r="F19" s="4">
+        <f>E19-$D$10</f>
+        <v>2.7953846153846129</v>
+      </c>
+      <c r="G19" s="4">
+        <f>MEDIAN(G10:S10)</f>
+        <v>65.78</v>
+      </c>
+      <c r="H19" s="4">
+        <f>G19-$D$10</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="I19" s="4" t="e">
+        <f>MODE(G10:S10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="4" t="e">
+        <f>I19-$D$10</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="4">
+        <f>T10-U10</f>
+        <v>15.93</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <f>AVERAGE(G11:S11)</f>
+        <v>76.30153846153847</v>
+      </c>
+      <c r="F20" s="4">
+        <f>E20-$D$11</f>
+        <v>17.501538461538473</v>
+      </c>
+      <c r="G20" s="4">
+        <f>MEDIAN(G11:S11)</f>
+        <v>77.41</v>
+      </c>
+      <c r="H20" s="4">
+        <f>G20-$D$11</f>
+        <v>18.61</v>
+      </c>
+      <c r="I20" s="4" t="e">
+        <f>MODE(G11:S11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="4" t="e">
+        <f>I20-$D$11</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="4">
+        <f>T11-U11</f>
+        <v>18.02000000000001</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+    </row>
+    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+    </row>
+    <row r="35" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+    </row>
+    <row r="36" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE874D14-1346-4900-BEFE-328E54B0D8B2}">
   <dimension ref="B5:DB52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9747,7 +8063,7 @@
   <sheetData>
     <row r="5" spans="3:106" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -10159,7 +8475,7 @@
     </row>
     <row r="7" spans="3:106" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -10466,7 +8782,7 @@
     </row>
     <row r="8" spans="3:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -10873,11 +9189,11 @@
       </c>
     </row>
     <row r="9" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -10981,7 +9297,7 @@
       <c r="DB9" s="12"/>
     </row>
     <row r="10" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -11113,15 +9429,15 @@
       </c>
     </row>
     <row r="11" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>58.8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>58.89</v>
@@ -11427,8 +9743,8 @@
       </c>
     </row>
     <row r="12" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -11560,9 +9876,9 @@
       </c>
     </row>
     <row r="13" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -11971,36 +10287,36 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>10</v>
@@ -12036,7 +10352,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <f>AVERAGE(G11:Y11)</f>
@@ -12099,8 +10415,8 @@
       <c r="E26" s="11"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F31" s="17"/>
@@ -12109,12 +10425,12 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -12136,8 +10452,8 @@
       <c r="Y34" s="17"/>
     </row>
     <row r="35" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -12159,11 +10475,11 @@
       <c r="Y35" s="17"/>
     </row>
     <row r="50" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -12267,7 +10583,7 @@
       <c r="DA50" s="12"/>
     </row>
     <row r="51" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="1"/>
@@ -12380,12 +10696,12 @@
       <c r="DA51" s="12"/>
     </row>
     <row r="52" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="1">
         <v>58.8</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>51.83</v>
@@ -12704,875 +11020,16 @@
     <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7534C913-4E58-4D5B-8F6A-47330764B231}">
-  <dimension ref="C5:W36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K18" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10</v>
-      </c>
-      <c r="O6" s="1">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>20</v>
-      </c>
-      <c r="R6" s="1">
-        <v>25</v>
-      </c>
-      <c r="S6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3194559</v>
-      </c>
-      <c r="G7" s="1">
-        <v>274470</v>
-      </c>
-      <c r="H7" s="1">
-        <v>156876</v>
-      </c>
-      <c r="I7" s="1">
-        <v>81747</v>
-      </c>
-      <c r="J7" s="1">
-        <v>56439</v>
-      </c>
-      <c r="K7" s="1">
-        <v>28879</v>
-      </c>
-      <c r="L7" s="1">
-        <v>19540</v>
-      </c>
-      <c r="M7" s="1">
-        <v>13480</v>
-      </c>
-      <c r="N7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3319</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1996</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1185</v>
-      </c>
-      <c r="R7" s="1">
-        <v>686</v>
-      </c>
-      <c r="S7" s="1">
-        <v>433</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:L8" si="0">F7-G7</f>
-        <v>2920089</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>117594</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>75129</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>25308</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>27560</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>9339</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f>M7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="2" t="e">
-        <f>N7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f>O7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="2" t="e">
-        <f>P7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f>Q7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R8" s="2" t="e">
-        <f>R7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S8" s="2">
-        <f>S7-T9</f>
-        <v>433</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="28">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28">
-        <v>3</v>
-      </c>
-      <c r="I9" s="28">
-        <v>4</v>
-      </c>
-      <c r="J9" s="28">
-        <v>5</v>
-      </c>
-      <c r="K9" s="28">
-        <v>6</v>
-      </c>
-      <c r="L9" s="28">
-        <v>7</v>
-      </c>
-      <c r="M9" s="28">
-        <v>8</v>
-      </c>
-      <c r="N9" s="28">
-        <v>10</v>
-      </c>
-      <c r="O9" s="28">
-        <v>13</v>
-      </c>
-      <c r="P9" s="28">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>20</v>
-      </c>
-      <c r="R9" s="28">
-        <v>25</v>
-      </c>
-      <c r="S9" s="28">
-        <v>30</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>62.96</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4">
-        <v>60.61</v>
-      </c>
-      <c r="H10" s="4">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="I10" s="4">
-        <v>69.09</v>
-      </c>
-      <c r="J10" s="4">
-        <v>71.36</v>
-      </c>
-      <c r="K10" s="4">
-        <v>70.680000000000007</v>
-      </c>
-      <c r="L10" s="4">
-        <v>70.31</v>
-      </c>
-      <c r="M10" s="6">
-        <v>72.55</v>
-      </c>
-      <c r="N10" s="4">
-        <v>62.96</v>
-      </c>
-      <c r="O10" s="4">
-        <v>64.23</v>
-      </c>
-      <c r="P10" s="4">
-        <v>65.78</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>62.44</v>
-      </c>
-      <c r="R10" s="4">
-        <v>57.34</v>
-      </c>
-      <c r="S10" s="7">
-        <v>56.62</v>
-      </c>
-      <c r="T10" s="16">
-        <f>MAX(G10:S10)</f>
-        <v>72.55</v>
-      </c>
-      <c r="U10" s="16">
-        <f>MIN(G10:S10)</f>
-        <v>56.62</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
-      <c r="D11" s="1">
-        <v>58.8</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4">
-        <v>77.41</v>
-      </c>
-      <c r="H11" s="4">
-        <v>74.66</v>
-      </c>
-      <c r="I11" s="4">
-        <v>76.540000000000006</v>
-      </c>
-      <c r="J11" s="4">
-        <v>78.349999999999994</v>
-      </c>
-      <c r="K11" s="4">
-        <v>81.290000000000006</v>
-      </c>
-      <c r="L11" s="6">
-        <v>82.4</v>
-      </c>
-      <c r="M11" s="4">
-        <v>80.88</v>
-      </c>
-      <c r="N11" s="4">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="O11" s="4">
-        <v>78.23</v>
-      </c>
-      <c r="P11" s="4">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>71.91</v>
-      </c>
-      <c r="R11" s="4">
-        <v>67.87</v>
-      </c>
-      <c r="S11" s="7">
-        <v>64.38</v>
-      </c>
-      <c r="T11" s="16">
-        <f>MAX(G11:S11)</f>
-        <v>82.4</v>
-      </c>
-      <c r="U11" s="16">
-        <f>MIN(G11:S11)</f>
-        <v>64.38</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <f>G10-$D10</f>
-        <v>-2.3500000000000014</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" ref="H12:S12" si="1">H10-$D10</f>
-        <v>7.8899999999999935</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1300000000000026</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>7.720000000000006</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="1"/>
-        <v>9.5899999999999963</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2700000000000031</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.52000000000000313</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.6199999999999974</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>-6.3400000000000034</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" ref="T12:T13" si="2">MAX(G12:S12)</f>
-        <v>9.5899999999999963</v>
-      </c>
-      <c r="U12" s="16">
-        <f t="shared" ref="U12:U13" si="3">MIN(G12:S12)</f>
-        <v>-6.3400000000000034</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <f>G11-$D11</f>
-        <v>18.61</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" ref="H13:S13" si="4">H11-$D11</f>
-        <v>15.86</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>17.740000000000009</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="4"/>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.490000000000009</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="4"/>
-        <v>23.600000000000009</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.08</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.600000000000009</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="4"/>
-        <v>19.430000000000007</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="4"/>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="4"/>
-        <v>13.11</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="4"/>
-        <v>9.0700000000000074</v>
-      </c>
-      <c r="S13" s="18">
-        <f t="shared" si="4"/>
-        <v>5.5799999999999983</v>
-      </c>
-      <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>23.600000000000009</v>
-      </c>
-      <c r="U13" s="16">
-        <f t="shared" si="3"/>
-        <v>5.5799999999999983</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4">
-        <f>AVERAGE(G10:S10)</f>
-        <v>65.755384615384614</v>
-      </c>
-      <c r="F19" s="4">
-        <f>E19-$D$10</f>
-        <v>2.7953846153846129</v>
-      </c>
-      <c r="G19" s="4">
-        <f>MEDIAN(G10:S10)</f>
-        <v>65.78</v>
-      </c>
-      <c r="H19" s="4">
-        <f>G19-$D$10</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="I19" s="4" t="e">
-        <f>MODE(G10:S10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="4" t="e">
-        <f>I19-$D$10</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="4">
-        <f>T10-U10</f>
-        <v>15.93</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <f>AVERAGE(G11:S11)</f>
-        <v>76.30153846153847</v>
-      </c>
-      <c r="F20" s="4">
-        <f>E20-$D$11</f>
-        <v>17.501538461538473</v>
-      </c>
-      <c r="G20" s="4">
-        <f>MEDIAN(G11:S11)</f>
-        <v>77.41</v>
-      </c>
-      <c r="H20" s="4">
-        <f>G20-$D$11</f>
-        <v>18.61</v>
-      </c>
-      <c r="I20" s="4" t="e">
-        <f>MODE(G11:S11)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="4" t="e">
-        <f>I20-$D$11</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="4">
-        <f>T11-U11</f>
-        <v>18.02000000000001</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-    </row>
-    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-    </row>
-    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-    </row>
-    <row r="35" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-    </row>
-    <row r="36" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13747,27 +11204,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639B1DF8-5300-44FC-ABF3-6F781304A349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A5EC26-D2E2-4D8D-869E-2C8A5705EC9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="25959382-e230-4cac-b931-d51d7c1b7e5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="686cf493-317c-48d0-b95a-f4bae4087949"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13792,9 +11237,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A5EC26-D2E2-4D8D-869E-2C8A5705EC9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639B1DF8-5300-44FC-ABF3-6F781304A349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="25959382-e230-4cac-b931-d51d7c1b7e5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="686cf493-317c-48d0-b95a-f4bae4087949"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/results/UYMS-EVOLC-results.xlsx
+++ b/results/UYMS-EVOLC-results.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Ex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Ivır Zıvır\UYMS\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA483C2-E2F3-4BBA-99E4-AA61D6F60A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C78EEB-7362-4247-B3AE-6154B2BF828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITK" sheetId="1" r:id="rId1"/>
     <sheet name="Hadoop" sheetId="2" r:id="rId2"/>
-    <sheet name="Chromium" sheetId="3" r:id="rId3"/>
-    <sheet name="Chromium-IntelXeon" sheetId="4" r:id="rId4"/>
+    <sheet name="Chromium-IntelXeon" sheetId="4" r:id="rId3"/>
+    <sheet name="Chromium (not used)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Chromium-IntelXeon'!$G$10:$S$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Chromium-IntelXeon'!$G$11:$S$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Chromium-IntelXeon'!$G$9:$S$9</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,9 +72,6 @@
     <t>ACDC</t>
   </si>
   <si>
-    <t>MCDC</t>
-  </si>
-  <si>
     <t>DIFF</t>
   </si>
   <si>
@@ -114,6 +106,9 @@
   </si>
   <si>
     <t>Only 7</t>
+  </si>
+  <si>
+    <t>MGMC</t>
   </si>
 </sst>
 </file>
@@ -301,6 +296,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -325,29 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF404040"/>
+      <color rgb="FF262626"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,8 +399,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -407,6 +409,120 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6DA-4239-A2E0-0722670D47CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58B1-47AB-9B64-C8D256B30216}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D6DA-4239-A2E0-0722670D47CC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-58B1-47AB-9B64-C8D256B30216}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>ITK!$F$10:$L$10</c:f>
@@ -417,13 +533,13 @@
                   <c:v>52.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.86</c:v>
+                  <c:v>57.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.34</c:v>
+                  <c:v>58.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.82</c:v>
+                  <c:v>60.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>60.81</c:v>
@@ -448,12 +564,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -462,6 +578,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-58B1-47AB-9B64-C8D256B30216}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4978378597187197E-2"/>
+                  <c:y val="-4.0998911556448144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="262626"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-58B1-47AB-9B64-C8D256B30216}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>ITK!$F$11:$L$11</c:f>
@@ -472,10 +714,10 @@
                   <c:v>54.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.9</c:v>
+                  <c:v>49.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.45</c:v>
+                  <c:v>50.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50.39</c:v>
@@ -777,7 +1019,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -877,8 +1119,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -886,548 +1129,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hadoop!$F$10:$Y$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>24.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26.12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E3A-4F7B-9917-77EE6170147D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MCDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hadoop!$F$11:$Y$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30.58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.46</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E3A-4F7B-9917-77EE6170147D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1818004239"/>
-        <c:axId val="31712847"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1818004239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2470947578154369E-2"/>
+                  <c:y val="-4.1862892106142267E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t># of co-changes</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31712847"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="31712847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="22"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Similarity (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818004239"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34708573378013285"/>
-          <c:y val="8.3725784212283758E-2"/>
-          <c:w val="0.30582831234146046"/>
-          <c:h val="7.0644124872721981E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13992769771703065"/>
-          <c:y val="0.15526946682168022"/>
-          <c:w val="0.70121813389678489"/>
-          <c:h val="0.63839558982672384"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ACDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Hadoop!$F$10:$Y$10</c:f>
@@ -1508,12 +1306,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1522,6 +1320,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2470947578154369E-2"/>
+                  <c:y val="-1.9186937232845497E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E1B2-4F7C-89CB-3840D2CB8D5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="262626"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Hadoop!$F$11:$Y$11</c:f>
@@ -1922,849 +1818,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Similarity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Co-change (MCDC)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>MCDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="29"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>22</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>23</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>26</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>28</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>29</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>30</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Chromium!$F$11:$AI$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Chromium!$G$11:$AI$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>58.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>58.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.82</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>58.81</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C267-4170-910D-8450E07D1C62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="871253535"/>
-        <c:axId val="871248959"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="871253535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="871248959"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="871248959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="65"/>
-          <c:min val="55"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="871253535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Similarity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Co-change (ACDC)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ACDC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Chromium!$L$6,Chromium!$O$6,Chromium!$R$6,Chromium!$U$6,Chromium!$Y$6,Chromium!$AD$6,Chromium!$AI$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Chromium!$L$10,Chromium!$O$10,Chromium!$R$10,Chromium!$U$10,Chromium!$Y$10,Chromium!$AD$10,Chromium!$AI$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DED-4DC0-ACCC-BAFA13FE3F1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="666119711"/>
-        <c:axId val="666109727"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="666119711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="666109727"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="666109727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="60"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="666119711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2803,8 +1857,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2812,6 +1867,107 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-00A9-4441-AD75-8BB6EDD0D982}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1882108486439246E-2"/>
+                  <c:y val="-3.2946790742066336E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-00A9-4441-AD75-8BB6EDD0D982}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Chromium-IntelXeon'!$G$6:$S$6</c:f>
@@ -2919,12 +2075,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MCDC</c:v>
+            <c:v>MGMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="262626"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2933,6 +2089,107 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="262626"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-00A9-4441-AD75-8BB6EDD0D982}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6250000000000048E-2"/>
+                  <c:y val="-3.7126519059725686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-00A9-4441-AD75-8BB6EDD0D982}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Chromium-IntelXeon'!$G$6:$S$6</c:f>
@@ -3430,126 +2687,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5137,1554 +4274,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6718,44 +4307,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11FD155-5817-4D17-A19B-613FF6C21F08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6806,86 +4357,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95BDE22-8171-4930-B8A6-48FF3A8B068A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24591E5C-ABE6-48C3-BDA3-51991C619DE6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C95BDE22-8171-4930-B8A6-48FF3A8B068A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7191,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:CY53"/>
   <sheetViews>
-    <sheetView topLeftCell="G23" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7208,7 +4679,7 @@
   <sheetData>
     <row r="3" spans="3:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7216,7 +4687,7 @@
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="12" t="s">
@@ -7263,7 +4734,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -7310,7 +4781,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -7394,13 +4865,13 @@
         <v>52.54</v>
       </c>
       <c r="G10" s="1">
-        <v>56.86</v>
+        <v>57.69</v>
       </c>
       <c r="H10" s="1">
-        <v>58.34</v>
+        <v>58.07</v>
       </c>
       <c r="I10" s="1">
-        <v>59.82</v>
+        <v>60.99</v>
       </c>
       <c r="J10" s="12">
         <v>60.81</v>
@@ -7431,7 +4902,7 @@
       </c>
       <c r="S10" s="12">
         <f>MAX(F10:R10)</f>
-        <v>60.81</v>
+        <v>60.99</v>
       </c>
       <c r="T10" s="1">
         <f>MIN(F10:R10)</f>
@@ -7444,16 +4915,16 @@
         <v>50.39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="12">
         <v>54.28</v>
       </c>
       <c r="G11" s="1">
-        <v>50.9</v>
+        <v>49.87</v>
       </c>
       <c r="H11" s="1">
-        <v>50.45</v>
+        <v>50.39</v>
       </c>
       <c r="I11" s="1">
         <v>50.39</v>
@@ -7491,12 +4962,12 @@
       </c>
       <c r="T11" s="1">
         <f>MIN(F11:R11)</f>
-        <v>50.39</v>
+        <v>49.87</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -7507,15 +4978,15 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12:T12" si="1">G10-$D$10</f>
-        <v>-3.5399999999999991</v>
+        <v>-2.7100000000000009</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0599999999999952</v>
+        <v>-2.3299999999999983</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
-        <v>-0.57999999999999829</v>
+        <v>0.59000000000000341</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
@@ -7555,7 +5026,7 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" si="1"/>
-        <v>0.41000000000000369</v>
+        <v>0.59000000000000341</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
@@ -7563,9 +5034,9 @@
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6">
         <f>F11-$D$11</f>
@@ -7573,11 +5044,11 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" ref="G13:T13" si="2">G11-$D$11</f>
-        <v>0.50999999999999801</v>
+        <v>-0.52000000000000313</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="2"/>
-        <v>6.0000000000002274E-2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
@@ -7625,36 +5096,36 @@
       </c>
       <c r="T13" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.52000000000000313</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
@@ -7663,19 +5134,19 @@
       </c>
       <c r="E19" s="4">
         <f>AVERAGE(F10:L10)</f>
-        <v>58.449999999999996</v>
+        <v>58.697142857142858</v>
       </c>
       <c r="F19" s="4">
         <f>E19-$D$10</f>
-        <v>-1.9500000000000028</v>
+        <v>-1.7028571428571411</v>
       </c>
       <c r="G19" s="4">
         <f>MEDIAN(F10:L10)</f>
-        <v>59.82</v>
+        <v>59.97</v>
       </c>
       <c r="H19" s="4">
         <f>G19-$D$10</f>
-        <v>-0.57999999999999829</v>
+        <v>-0.42999999999999972</v>
       </c>
       <c r="I19" s="4">
         <f>MODE(F10:L10)</f>
@@ -7687,20 +5158,20 @@
       </c>
       <c r="K19" s="1">
         <f>S10-T10</f>
-        <v>8.2700000000000031</v>
+        <v>8.4500000000000028</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9">
         <f>AVERAGE(F11:L11)</f>
-        <v>51.027142857142849</v>
+        <v>50.871428571428567</v>
       </c>
       <c r="F20" s="9">
         <f>E20-$D$11</f>
-        <v>0.63714285714284813</v>
+        <v>0.48142857142856599</v>
       </c>
       <c r="G20" s="4">
         <f>MEDIAN(F11:L11)</f>
@@ -7720,7 +5191,7 @@
       </c>
       <c r="K20" s="1">
         <f>S11-T11</f>
-        <v>3.8900000000000006</v>
+        <v>4.4100000000000037</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
@@ -7736,208 +5207,208 @@
       <c r="D22"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="24"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="47" spans="7:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="R50" s="12"/>
       <c r="CY50" s="12"/>
     </row>
@@ -8008,7 +5479,7 @@
         <v>50.39</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>52.07</v>
@@ -8082,8 +5553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF81F312-2BDD-4180-86AA-D0CC577BBA5B}">
   <dimension ref="C4:AL52"/>
   <sheetViews>
-    <sheetView topLeftCell="Q19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23:R35"/>
+    <sheetView topLeftCell="D13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8128,7 +5599,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="AK4" s="1"/>
@@ -8136,7 +5607,7 @@
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -8170,7 +5641,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="20"/>
+      <c r="AJ5" s="27"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
@@ -8278,7 +5749,7 @@
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -8382,7 +5853,7 @@
     </row>
     <row r="8" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -8517,11 +5988,11 @@
       </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8557,7 +6028,7 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -8669,12 +6140,12 @@
       </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>27.23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>26.07</v>
@@ -8779,8 +6250,8 @@
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -8919,9 +6390,9 @@
       </c>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4">
         <f>F11-$D$11</f>
@@ -9058,31 +6529,31 @@
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -9172,7 +6643,7 @@
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <f>AVERAGE(F11:Y11)</f>
@@ -9208,15 +6679,15 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -9244,15 +6715,15 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -9268,193 +6739,193 @@
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="F23" s="4"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="F24" s="4"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="E26" s="24"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
     </row>
     <row r="27" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
     </row>
     <row r="28" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
     <row r="29" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
     </row>
     <row r="30" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
     </row>
     <row r="31" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
     </row>
     <row r="32" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
     </row>
     <row r="33" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
     </row>
     <row r="34" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
     </row>
     <row r="35" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
     </row>
     <row r="36" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
     </row>
     <row r="37" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
     </row>
     <row r="50" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="C50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -9490,7 +6961,7 @@
       <c r="AL50" s="1"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="1">
@@ -9602,12 +7073,12 @@
       </c>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C52" s="25"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="1">
         <v>27.23</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1">
         <v>29.35</v>
@@ -9728,11 +7199,872 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7534C913-4E58-4D5B-8F6A-47330764B231}">
+  <dimension ref="C5:W36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3194559</v>
+      </c>
+      <c r="G7" s="1">
+        <v>274470</v>
+      </c>
+      <c r="H7" s="1">
+        <v>156876</v>
+      </c>
+      <c r="I7" s="1">
+        <v>81747</v>
+      </c>
+      <c r="J7" s="1">
+        <v>56439</v>
+      </c>
+      <c r="K7" s="1">
+        <v>28879</v>
+      </c>
+      <c r="L7" s="1">
+        <v>19540</v>
+      </c>
+      <c r="M7" s="1">
+        <v>13480</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3319</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1996</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1185</v>
+      </c>
+      <c r="R7" s="1">
+        <v>686</v>
+      </c>
+      <c r="S7" s="1">
+        <v>433</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:L8" si="0">F7-G7</f>
+        <v>2920089</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>117594</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>75129</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>25308</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>27560</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>9339</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>6060</v>
+      </c>
+      <c r="M8" s="2">
+        <f>M7-N7</f>
+        <v>6480</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:S8" si="1">N7-O7</f>
+        <v>3681</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1323</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="1"/>
+        <v>811</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+      <c r="J9" s="20">
+        <v>5</v>
+      </c>
+      <c r="K9" s="20">
+        <v>6</v>
+      </c>
+      <c r="L9" s="20">
+        <v>7</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8</v>
+      </c>
+      <c r="N9" s="20">
+        <v>10</v>
+      </c>
+      <c r="O9" s="20">
+        <v>13</v>
+      </c>
+      <c r="P9" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>20</v>
+      </c>
+      <c r="R9" s="20">
+        <v>25</v>
+      </c>
+      <c r="S9" s="20">
+        <v>30</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>62.96</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4">
+        <v>60.61</v>
+      </c>
+      <c r="H10" s="4">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="I10" s="4">
+        <v>69.09</v>
+      </c>
+      <c r="J10" s="4">
+        <v>71.36</v>
+      </c>
+      <c r="K10" s="4">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="L10" s="4">
+        <v>70.31</v>
+      </c>
+      <c r="M10" s="6">
+        <v>72.55</v>
+      </c>
+      <c r="N10" s="4">
+        <v>62.96</v>
+      </c>
+      <c r="O10" s="4">
+        <v>64.23</v>
+      </c>
+      <c r="P10" s="4">
+        <v>65.78</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>62.44</v>
+      </c>
+      <c r="R10" s="4">
+        <v>57.34</v>
+      </c>
+      <c r="S10" s="7">
+        <v>56.62</v>
+      </c>
+      <c r="T10" s="16">
+        <f>MAX(G10:S10)</f>
+        <v>72.55</v>
+      </c>
+      <c r="U10" s="16">
+        <f>MIN(G10:S10)</f>
+        <v>56.62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <v>77.41</v>
+      </c>
+      <c r="H11" s="4">
+        <v>74.66</v>
+      </c>
+      <c r="I11" s="4">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="J11" s="4">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="K11" s="4">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="L11" s="6">
+        <v>82.4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>80.88</v>
+      </c>
+      <c r="N11" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="O11" s="4">
+        <v>78.23</v>
+      </c>
+      <c r="P11" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>71.91</v>
+      </c>
+      <c r="R11" s="4">
+        <v>67.87</v>
+      </c>
+      <c r="S11" s="7">
+        <v>64.38</v>
+      </c>
+      <c r="T11" s="16">
+        <f>MAX(G11:S11)</f>
+        <v>82.4</v>
+      </c>
+      <c r="U11" s="16">
+        <f>MIN(G11:S11)</f>
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <f>G10-$D10</f>
+        <v>-2.3500000000000014</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:S12" si="2">H10-$D10</f>
+        <v>7.8899999999999935</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1300000000000026</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.720000000000006</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.5899999999999963</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2700000000000031</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.52000000000000313</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.6199999999999974</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.3400000000000034</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" ref="T12:T13" si="3">MAX(G12:S12)</f>
+        <v>9.5899999999999963</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" ref="U12:U13" si="4">MIN(G12:S12)</f>
+        <v>-6.3400000000000034</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="28"/>
+      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <f>G11-$D11</f>
+        <v>18.61</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:S13" si="5">H11-$D11</f>
+        <v>15.86</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="5"/>
+        <v>17.740000000000009</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.490000000000009</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="5"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.08</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="5"/>
+        <v>22.600000000000009</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="5"/>
+        <v>19.430000000000007</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="5"/>
+        <v>13.11</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0700000000000074</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="5"/>
+        <v>5.5799999999999983</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="3"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="4"/>
+        <v>5.5799999999999983</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <f>AVERAGE(G10:S10)</f>
+        <v>65.755384615384614</v>
+      </c>
+      <c r="F19" s="4">
+        <f>E19-$D$10</f>
+        <v>2.7953846153846129</v>
+      </c>
+      <c r="G19" s="4">
+        <f>MEDIAN(G10:S10)</f>
+        <v>65.78</v>
+      </c>
+      <c r="H19" s="4">
+        <f>G19-$D$10</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="I19" s="4" t="e">
+        <f>MODE(G10:S10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="4" t="e">
+        <f>I19-$D$10</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="4">
+        <f>T10-U10</f>
+        <v>15.93</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <f>AVERAGE(G11:S11)</f>
+        <v>76.30153846153847</v>
+      </c>
+      <c r="F20" s="4">
+        <f>E20-$D$11</f>
+        <v>17.501538461538473</v>
+      </c>
+      <c r="G20" s="4">
+        <f>MEDIAN(G11:S11)</f>
+        <v>77.41</v>
+      </c>
+      <c r="H20" s="4">
+        <f>G20-$D$11</f>
+        <v>18.61</v>
+      </c>
+      <c r="I20" s="4" t="e">
+        <f>MODE(G11:S11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="4" t="e">
+        <f>I20-$D$11</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="4">
+        <f>T11-U11</f>
+        <v>18.02000000000001</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+    </row>
+    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+    </row>
+    <row r="35" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+    </row>
+    <row r="36" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE874D14-1346-4900-BEFE-328E54B0D8B2}">
   <dimension ref="B5:DB52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9747,7 +8079,7 @@
   <sheetData>
     <row r="5" spans="3:106" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -10159,7 +8491,7 @@
     </row>
     <row r="7" spans="3:106" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -10466,7 +8798,7 @@
     </row>
     <row r="8" spans="3:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
@@ -10873,11 +9205,11 @@
       </c>
     </row>
     <row r="9" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -10981,7 +9313,7 @@
       <c r="DB9" s="12"/>
     </row>
     <row r="10" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -11113,15 +9445,15 @@
       </c>
     </row>
     <row r="11" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>58.8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>58.89</v>
@@ -11427,8 +9759,8 @@
       </c>
     </row>
     <row r="12" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
+      <c r="D12" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -11560,9 +9892,9 @@
       </c>
     </row>
     <row r="13" spans="3:106" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -11971,36 +10303,36 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>10</v>
@@ -12036,7 +10368,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <f>AVERAGE(G11:Y11)</f>
@@ -12099,8 +10431,8 @@
       <c r="E26" s="11"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F31" s="17"/>
@@ -12109,12 +10441,12 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -12136,8 +10468,8 @@
       <c r="Y34" s="17"/>
     </row>
     <row r="35" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -12159,11 +10491,11 @@
       <c r="Y35" s="17"/>
     </row>
     <row r="50" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -12267,7 +10599,7 @@
       <c r="DA50" s="12"/>
     </row>
     <row r="51" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="1"/>
@@ -12380,12 +10712,12 @@
       <c r="DA51" s="12"/>
     </row>
     <row r="52" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="1">
         <v>58.8</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>51.83</v>
@@ -12704,868 +11036,6 @@
     <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7534C913-4E58-4D5B-8F6A-47330764B231}">
-  <dimension ref="C5:W36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K18" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10</v>
-      </c>
-      <c r="O6" s="1">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>20</v>
-      </c>
-      <c r="R6" s="1">
-        <v>25</v>
-      </c>
-      <c r="S6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3194559</v>
-      </c>
-      <c r="G7" s="1">
-        <v>274470</v>
-      </c>
-      <c r="H7" s="1">
-        <v>156876</v>
-      </c>
-      <c r="I7" s="1">
-        <v>81747</v>
-      </c>
-      <c r="J7" s="1">
-        <v>56439</v>
-      </c>
-      <c r="K7" s="1">
-        <v>28879</v>
-      </c>
-      <c r="L7" s="1">
-        <v>19540</v>
-      </c>
-      <c r="M7" s="1">
-        <v>13480</v>
-      </c>
-      <c r="N7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3319</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1996</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1185</v>
-      </c>
-      <c r="R7" s="1">
-        <v>686</v>
-      </c>
-      <c r="S7" s="1">
-        <v>433</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:L8" si="0">F7-G7</f>
-        <v>2920089</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>117594</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>75129</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>25308</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>27560</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>9339</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f>M7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="2" t="e">
-        <f>N7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f>O7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="2" t="e">
-        <f>P7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f>Q7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R8" s="2" t="e">
-        <f>R7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S8" s="2">
-        <f>S7-T9</f>
-        <v>433</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="28">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28">
-        <v>3</v>
-      </c>
-      <c r="I9" s="28">
-        <v>4</v>
-      </c>
-      <c r="J9" s="28">
-        <v>5</v>
-      </c>
-      <c r="K9" s="28">
-        <v>6</v>
-      </c>
-      <c r="L9" s="28">
-        <v>7</v>
-      </c>
-      <c r="M9" s="28">
-        <v>8</v>
-      </c>
-      <c r="N9" s="28">
-        <v>10</v>
-      </c>
-      <c r="O9" s="28">
-        <v>13</v>
-      </c>
-      <c r="P9" s="28">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>20</v>
-      </c>
-      <c r="R9" s="28">
-        <v>25</v>
-      </c>
-      <c r="S9" s="28">
-        <v>30</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>62.96</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4">
-        <v>60.61</v>
-      </c>
-      <c r="H10" s="4">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="I10" s="4">
-        <v>69.09</v>
-      </c>
-      <c r="J10" s="4">
-        <v>71.36</v>
-      </c>
-      <c r="K10" s="4">
-        <v>70.680000000000007</v>
-      </c>
-      <c r="L10" s="4">
-        <v>70.31</v>
-      </c>
-      <c r="M10" s="6">
-        <v>72.55</v>
-      </c>
-      <c r="N10" s="4">
-        <v>62.96</v>
-      </c>
-      <c r="O10" s="4">
-        <v>64.23</v>
-      </c>
-      <c r="P10" s="4">
-        <v>65.78</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>62.44</v>
-      </c>
-      <c r="R10" s="4">
-        <v>57.34</v>
-      </c>
-      <c r="S10" s="7">
-        <v>56.62</v>
-      </c>
-      <c r="T10" s="16">
-        <f>MAX(G10:S10)</f>
-        <v>72.55</v>
-      </c>
-      <c r="U10" s="16">
-        <f>MIN(G10:S10)</f>
-        <v>56.62</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
-      <c r="D11" s="1">
-        <v>58.8</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4">
-        <v>77.41</v>
-      </c>
-      <c r="H11" s="4">
-        <v>74.66</v>
-      </c>
-      <c r="I11" s="4">
-        <v>76.540000000000006</v>
-      </c>
-      <c r="J11" s="4">
-        <v>78.349999999999994</v>
-      </c>
-      <c r="K11" s="4">
-        <v>81.290000000000006</v>
-      </c>
-      <c r="L11" s="6">
-        <v>82.4</v>
-      </c>
-      <c r="M11" s="4">
-        <v>80.88</v>
-      </c>
-      <c r="N11" s="4">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="O11" s="4">
-        <v>78.23</v>
-      </c>
-      <c r="P11" s="4">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>71.91</v>
-      </c>
-      <c r="R11" s="4">
-        <v>67.87</v>
-      </c>
-      <c r="S11" s="7">
-        <v>64.38</v>
-      </c>
-      <c r="T11" s="16">
-        <f>MAX(G11:S11)</f>
-        <v>82.4</v>
-      </c>
-      <c r="U11" s="16">
-        <f>MIN(G11:S11)</f>
-        <v>64.38</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <f>G10-$D10</f>
-        <v>-2.3500000000000014</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" ref="H12:S12" si="1">H10-$D10</f>
-        <v>7.8899999999999935</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1300000000000026</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>7.720000000000006</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="1"/>
-        <v>9.5899999999999963</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2700000000000031</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.52000000000000313</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.6199999999999974</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>-6.3400000000000034</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" ref="T12:T13" si="2">MAX(G12:S12)</f>
-        <v>9.5899999999999963</v>
-      </c>
-      <c r="U12" s="16">
-        <f t="shared" ref="U12:U13" si="3">MIN(G12:S12)</f>
-        <v>-6.3400000000000034</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <f>G11-$D11</f>
-        <v>18.61</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" ref="H13:S13" si="4">H11-$D11</f>
-        <v>15.86</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>17.740000000000009</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="4"/>
-        <v>19.549999999999997</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.490000000000009</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="4"/>
-        <v>23.600000000000009</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.08</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="4"/>
-        <v>22.600000000000009</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="4"/>
-        <v>19.430000000000007</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="4"/>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="4"/>
-        <v>13.11</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="4"/>
-        <v>9.0700000000000074</v>
-      </c>
-      <c r="S13" s="18">
-        <f t="shared" si="4"/>
-        <v>5.5799999999999983</v>
-      </c>
-      <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>23.600000000000009</v>
-      </c>
-      <c r="U13" s="16">
-        <f t="shared" si="3"/>
-        <v>5.5799999999999983</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4">
-        <f>AVERAGE(G10:S10)</f>
-        <v>65.755384615384614</v>
-      </c>
-      <c r="F19" s="4">
-        <f>E19-$D$10</f>
-        <v>2.7953846153846129</v>
-      </c>
-      <c r="G19" s="4">
-        <f>MEDIAN(G10:S10)</f>
-        <v>65.78</v>
-      </c>
-      <c r="H19" s="4">
-        <f>G19-$D$10</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="I19" s="4" t="e">
-        <f>MODE(G10:S10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="4" t="e">
-        <f>I19-$D$10</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="4">
-        <f>T10-U10</f>
-        <v>15.93</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <f>AVERAGE(G11:S11)</f>
-        <v>76.30153846153847</v>
-      </c>
-      <c r="F20" s="4">
-        <f>E20-$D$11</f>
-        <v>17.501538461538473</v>
-      </c>
-      <c r="G20" s="4">
-        <f>MEDIAN(G11:S11)</f>
-        <v>77.41</v>
-      </c>
-      <c r="H20" s="4">
-        <f>G20-$D$11</f>
-        <v>18.61</v>
-      </c>
-      <c r="I20" s="4" t="e">
-        <f>MODE(G11:S11)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="4" t="e">
-        <f>I20-$D$11</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="4">
-        <f>T11-U11</f>
-        <v>18.02000000000001</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-    </row>
-    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-    </row>
-    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-    </row>
-    <row r="35" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-    </row>
-    <row r="36" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
